--- a/data/top10_tables_all_timepoints.xlsx
+++ b/data/top10_tables_all_timepoints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ragnvald B. Steile\Desktop\Innlevering_masteroppgave\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECDC471-D21D-4385-B47C-5FFFDC97A13E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A811D7-0739-48DC-9FE7-FC5685C233E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{EBC3389D-65B4-43E3-AA51-3F61288BAE8C}"/>
+    <workbookView xWindow="4416" yWindow="1752" windowWidth="6000" windowHeight="4800" xr2:uid="{EBC3389D-65B4-43E3-AA51-3F61288BAE8C}"/>
   </bookViews>
   <sheets>
     <sheet name="w2pre" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="113">
   <si>
     <t>Ensemble_gene_id</t>
   </si>
@@ -190,15 +190,9 @@
     <t>Regulates migration prostate cancer cells</t>
   </si>
   <si>
-    <t>Lingadahali et al. (2018)</t>
-  </si>
-  <si>
     <t>ENSG00000237499</t>
   </si>
   <si>
-    <t>Herter et al. (2019)</t>
-  </si>
-  <si>
     <t>ENSG00000214548</t>
   </si>
   <si>
@@ -290,12 +284,6 @@
   </si>
   <si>
     <t>Mode_of_action</t>
-  </si>
-  <si>
-    <t>Target_genes/features</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Production of Inflammatory Chemokines and modulates Keratinocyte Motility.</t>
   </si>
   <si>
     <t>log2FC</t>
@@ -330,12 +318,6 @@
     </r>
   </si>
   <si>
-    <t>↓</t>
-  </si>
-  <si>
-    <t>↑</t>
-  </si>
-  <si>
     <t>β-catenin ↑</t>
   </si>
   <si>
@@ -376,6 +358,33 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Blocks effect of microRNA</t>
+  </si>
+  <si>
+    <t>miR-488-3p</t>
+  </si>
+  <si>
+    <t>Tumor promoting properties</t>
+  </si>
+  <si>
+    <t>siRNAs</t>
+  </si>
+  <si>
+    <t>miRNAs</t>
+  </si>
+  <si>
+    <t>Modulates Adrogen receptor binding to chromatin</t>
+  </si>
+  <si>
+    <t>NDRG1 ↑</t>
+  </si>
+  <si>
+    <t>Lingadahalli et al. (2018)</t>
+  </si>
+  <si>
+    <t>Target_genes_features</t>
   </si>
 </sst>
 </file>
@@ -749,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EE4221-8885-4200-B3C3-4A22B0BCF6EA}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -794,16 +803,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>6</v>
@@ -814,7 +823,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>0.642936046197644</v>
@@ -829,19 +838,19 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" t="s">
         <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" t="s">
-        <v>57</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -852,7 +861,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>1.3384247611842539</v>
@@ -867,19 +876,19 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
@@ -890,7 +899,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>1.078448663909229</v>
@@ -905,19 +914,19 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s">
         <v>62</v>
-      </c>
-      <c r="H4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
       </c>
       <c r="L4" t="s">
         <v>14</v>
@@ -928,7 +937,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>0.90149120484844747</v>
@@ -943,22 +952,22 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" t="s">
         <v>66</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
         <v>67</v>
-      </c>
-      <c r="I5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" t="s">
-        <v>69</v>
       </c>
       <c r="M5">
         <v>4.4739742519473383E-28</v>
@@ -966,7 +975,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <v>1.2063114330217679</v>
@@ -981,22 +990,22 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" t="s">
         <v>71</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
         <v>72</v>
-      </c>
-      <c r="I6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J6" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" t="s">
-        <v>73</v>
-      </c>
-      <c r="L6" t="s">
-        <v>74</v>
       </c>
       <c r="M6">
         <v>8.7107927920294831E-26</v>
@@ -1004,7 +1013,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>1.8271131235345861</v>
@@ -1024,7 +1033,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>1.0964081581530041</v>
@@ -1039,19 +1048,19 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
@@ -1082,7 +1091,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>1.1948035957917429</v>
@@ -1097,19 +1106,19 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
@@ -1120,7 +1129,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11">
         <v>1.1877468426063991</v>
@@ -1136,16 +1145,6 @@
       </c>
       <c r="M11">
         <v>7.4184112902769886E-19</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H19" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1158,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C36E953-83EE-489A-B4E5-1FCCE69A2B59}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1184,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -1202,16 +1201,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>6</v>
@@ -1263,7 +1262,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
@@ -1318,7 +1317,7 @@
         <v>19</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M5">
         <v>3.1510685012144817E-45</v>
@@ -1466,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF577C02-FE08-4496-B4A1-06C49D6107F3}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1491,13 +1490,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -1509,16 +1508,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>6</v>
@@ -1576,7 +1575,7 @@
         <v>31</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>32</v>
@@ -1610,6 +1609,12 @@
       </c>
       <c r="H4" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>36</v>
@@ -1669,6 +1674,12 @@
       <c r="H6" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="I6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="K6" s="3" t="s">
         <v>41</v>
       </c>
@@ -1701,6 +1712,12 @@
       </c>
       <c r="H7" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>45</v>
@@ -1785,8 +1802,14 @@
       <c r="H10" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="I10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="K10" s="3" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>14</v>
@@ -1797,7 +1820,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="3">
         <v>0.87860077425338101</v>
@@ -1813,17 +1836,11 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
       <c r="M11" s="3">
         <v>1.2850503949769179E-7</v>
       </c>
